--- a/Code/Results/Cases/Case_0_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_65/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1504075084143324</v>
+        <v>0.04898030544646303</v>
       </c>
       <c r="D2">
-        <v>0.04835609144569908</v>
+        <v>0.1257066524302282</v>
       </c>
       <c r="E2">
-        <v>0.02924876566395973</v>
+        <v>0.1035573562867231</v>
       </c>
       <c r="F2">
-        <v>1.680579327258457</v>
+        <v>1.67036430150111</v>
       </c>
       <c r="G2">
-        <v>0.0007555333600978195</v>
+        <v>0.002438876330124255</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02441235650958884</v>
+        <v>0.1117533108220439</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.175865207839166</v>
+        <v>1.352584820595027</v>
       </c>
       <c r="N2">
-        <v>3.809672473222093</v>
+        <v>1.740294397118504</v>
       </c>
       <c r="O2">
-        <v>5.513906784600863</v>
+        <v>4.574873944090655</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1295159408713999</v>
+        <v>0.04348451995367952</v>
       </c>
       <c r="D3">
-        <v>0.0483262544807932</v>
+        <v>0.1260504724942564</v>
       </c>
       <c r="E3">
-        <v>0.03117167707605972</v>
+        <v>0.104899287764062</v>
       </c>
       <c r="F3">
-        <v>1.491352312952344</v>
+        <v>1.640799753086426</v>
       </c>
       <c r="G3">
-        <v>0.000763187851733481</v>
+        <v>0.002443907155615908</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0276374845900671</v>
+        <v>0.1140284108014908</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.766062525768504</v>
+        <v>1.22724505357219</v>
       </c>
       <c r="N3">
-        <v>3.400154251652424</v>
+        <v>1.606134505008129</v>
       </c>
       <c r="O3">
-        <v>4.851257280334153</v>
+        <v>4.454729144343901</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1168941109578583</v>
+        <v>0.04012880259830354</v>
       </c>
       <c r="D4">
-        <v>0.0483302844949467</v>
+        <v>0.126280195050569</v>
       </c>
       <c r="E4">
-        <v>0.03241731003521187</v>
+        <v>0.1057695588103202</v>
       </c>
       <c r="F4">
-        <v>1.379146761447217</v>
+        <v>1.623870794883487</v>
       </c>
       <c r="G4">
-        <v>0.0007680194812869339</v>
+        <v>0.002447160242067154</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02976192635858954</v>
+        <v>0.1155032503235205</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.514879689652616</v>
+        <v>1.150212736367109</v>
       </c>
       <c r="N4">
-        <v>3.149530066817732</v>
+        <v>1.523993944342948</v>
       </c>
       <c r="O4">
-        <v>4.456654508581266</v>
+        <v>4.384359006458055</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1117949014310113</v>
+        <v>0.03876591023536946</v>
       </c>
       <c r="D5">
-        <v>0.04833741226774713</v>
+        <v>0.1263785061739817</v>
       </c>
       <c r="E5">
-        <v>0.03294089950649592</v>
+        <v>0.1061358538425878</v>
       </c>
       <c r="F5">
-        <v>1.334319403530088</v>
+        <v>1.617278255967562</v>
       </c>
       <c r="G5">
-        <v>0.0007700229463210644</v>
+        <v>0.002448527316004397</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03066219656941271</v>
+        <v>0.1161238154003144</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.412590200032227</v>
+        <v>1.118805339419026</v>
       </c>
       <c r="N5">
-        <v>3.047581186118606</v>
+        <v>1.490583749881239</v>
       </c>
       <c r="O5">
-        <v>4.298597502679684</v>
+        <v>4.356532256021751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1109506503818665</v>
+        <v>0.03853987680648174</v>
       </c>
       <c r="D6">
-        <v>0.04833892361658876</v>
+        <v>0.1263951148443585</v>
       </c>
       <c r="E6">
-        <v>0.03302879657215518</v>
+        <v>0.1061973807860754</v>
       </c>
       <c r="F6">
-        <v>1.326927175457101</v>
+        <v>1.616202014522116</v>
       </c>
       <c r="G6">
-        <v>0.0007703577452854987</v>
+        <v>0.002448756823119679</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0308137238971824</v>
+        <v>0.1162280398046356</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.395608205920823</v>
+        <v>1.113589260736376</v>
       </c>
       <c r="N6">
-        <v>3.030663018854085</v>
+        <v>1.48503991737897</v>
       </c>
       <c r="O6">
-        <v>4.272508796429008</v>
+        <v>4.3519628135071</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1168251713061039</v>
+        <v>0.04011040372456876</v>
       </c>
       <c r="D7">
-        <v>0.04833035857397938</v>
+        <v>0.1262815018678385</v>
       </c>
       <c r="E7">
-        <v>0.03242430707907529</v>
+        <v>0.1057744516065631</v>
       </c>
       <c r="F7">
-        <v>1.378538701844619</v>
+        <v>1.623780648117688</v>
       </c>
       <c r="G7">
-        <v>0.0007680463590486185</v>
+        <v>0.002447178511114185</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02977393004459472</v>
+        <v>0.1155115403504565</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.513499946651947</v>
+        <v>1.149789227363186</v>
       </c>
       <c r="N7">
-        <v>3.148154439624449</v>
+        <v>1.523543103533257</v>
       </c>
       <c r="O7">
-        <v>4.454512201432124</v>
+        <v>4.383980291753971</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1431567404494274</v>
+        <v>0.04708140169394426</v>
       </c>
       <c r="D8">
-        <v>0.0483410765305532</v>
+        <v>0.1258213476704988</v>
       </c>
       <c r="E8">
-        <v>0.02989808845608533</v>
+        <v>0.1040104437695435</v>
       </c>
       <c r="F8">
-        <v>1.61444260728625</v>
+        <v>1.659915475881149</v>
       </c>
       <c r="G8">
-        <v>0.0007581461694828412</v>
+        <v>0.002440576976344893</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02549338435469828</v>
+        <v>0.1125215709533585</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.034448542424244</v>
+        <v>1.309384196411017</v>
       </c>
       <c r="N8">
-        <v>3.66828463624222</v>
+        <v>1.693989729170397</v>
       </c>
       <c r="O8">
-        <v>5.282667097471403</v>
+        <v>4.532739360128971</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.196795669036689</v>
+        <v>0.06090598405492642</v>
       </c>
       <c r="D9">
-        <v>0.04854695167358258</v>
+        <v>0.1250659768105287</v>
       </c>
       <c r="E9">
-        <v>0.02547600876376066</v>
+        <v>0.1009184843684068</v>
       </c>
       <c r="F9">
-        <v>2.113796582456999</v>
+        <v>1.740563859347333</v>
       </c>
       <c r="G9">
-        <v>0.0007397072577056243</v>
+        <v>0.002428927339792227</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01832654083372987</v>
+        <v>0.1072780889896539</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.061620411508898</v>
+        <v>1.621683565452898</v>
       </c>
       <c r="N9">
-        <v>4.696050528332137</v>
+        <v>2.029942079240129</v>
       </c>
       <c r="O9">
-        <v>7.020859647953785</v>
+        <v>4.851680228292707</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.238003235289483</v>
+        <v>0.07116633368296732</v>
       </c>
       <c r="D10">
-        <v>0.04882419458521525</v>
+        <v>0.1245996481797214</v>
       </c>
       <c r="E10">
-        <v>0.02257519122537044</v>
+        <v>0.09887027245566848</v>
       </c>
       <c r="F10">
-        <v>2.511111843136661</v>
+        <v>1.805900313395142</v>
       </c>
       <c r="G10">
-        <v>0.0007266462587254072</v>
+        <v>0.002421149409398863</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01393468090891847</v>
+        <v>0.1038056298581171</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.823144931546693</v>
+        <v>1.850633252564307</v>
       </c>
       <c r="N10">
-        <v>5.457955891538063</v>
+        <v>2.277632257103733</v>
       </c>
       <c r="O10">
-        <v>8.393804612136194</v>
+        <v>5.102985925478947</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2572884824507895</v>
+        <v>0.07585855701360344</v>
       </c>
       <c r="D11">
-        <v>0.04898165955221856</v>
+        <v>0.1244065461052912</v>
       </c>
       <c r="E11">
-        <v>0.02133677070655082</v>
+        <v>0.09798691408584226</v>
       </c>
       <c r="F11">
-        <v>2.700533193199192</v>
+        <v>1.8369707072344</v>
       </c>
       <c r="G11">
-        <v>0.0007207823659835344</v>
+        <v>0.002417778707945402</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01215752769643785</v>
+        <v>0.1023088602583719</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.171986598153637</v>
+        <v>1.954663130647134</v>
       </c>
       <c r="N11">
-        <v>5.806567710722277</v>
+        <v>2.390466510659451</v>
       </c>
       <c r="O11">
-        <v>9.045975549618163</v>
+        <v>5.221083733741636</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2646830950192935</v>
+        <v>0.07763908447286383</v>
       </c>
       <c r="D12">
-        <v>0.0490462266733438</v>
+        <v>0.1243361436883177</v>
       </c>
       <c r="E12">
-        <v>0.02088000017407943</v>
+        <v>0.09765936181021395</v>
       </c>
       <c r="F12">
-        <v>2.773708363214581</v>
+        <v>1.848932139035384</v>
       </c>
       <c r="G12">
-        <v>0.0007185703926948449</v>
+        <v>0.002416526253252583</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0115192330429581</v>
+        <v>0.101754030951863</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.304520070975286</v>
+        <v>1.994037282722928</v>
       </c>
       <c r="N12">
-        <v>5.93891547831447</v>
+        <v>2.433213383629663</v>
       </c>
       <c r="O12">
-        <v>9.297556061208581</v>
+        <v>5.266353898608315</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2630862099363895</v>
+        <v>0.07725545013198598</v>
       </c>
       <c r="D13">
-        <v>0.04903209340874781</v>
+        <v>0.1243511853361596</v>
       </c>
       <c r="E13">
-        <v>0.02097782295006034</v>
+        <v>0.09772959668354275</v>
       </c>
       <c r="F13">
-        <v>2.757881078722704</v>
+        <v>1.846347295302508</v>
       </c>
       <c r="G13">
-        <v>0.0007190464452777429</v>
+        <v>0.002416794928200891</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0116551089689283</v>
+        <v>0.1018729904543338</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.275955763510012</v>
+        <v>1.985558268557952</v>
       </c>
       <c r="N13">
-        <v>5.910396286819491</v>
+        <v>2.424006295602794</v>
       </c>
       <c r="O13">
-        <v>9.243157104640034</v>
+        <v>5.256579643447708</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2578949164233251</v>
+        <v>0.07600496750835362</v>
       </c>
       <c r="D14">
-        <v>0.04898686972887845</v>
+        <v>0.1244006996107743</v>
       </c>
       <c r="E14">
-        <v>0.0212989444577385</v>
+        <v>0.09795982675307879</v>
       </c>
       <c r="F14">
-        <v>2.706523168899821</v>
+        <v>1.837950847767758</v>
       </c>
       <c r="G14">
-        <v>0.0007206002301769487</v>
+        <v>0.002417675188362432</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01210430195746781</v>
+        <v>0.1022629740450931</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.18288095209428</v>
+        <v>1.957902874285395</v>
       </c>
       <c r="N14">
-        <v>5.817449025152939</v>
+        <v>2.393982962815755</v>
       </c>
       <c r="O14">
-        <v>9.066576675550095</v>
+        <v>5.22479709900341</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.254727491863207</v>
+        <v>0.07523949438964905</v>
       </c>
       <c r="D15">
-        <v>0.04895982653952657</v>
+        <v>0.1244313824400436</v>
       </c>
       <c r="E15">
-        <v>0.02149724451612034</v>
+        <v>0.09810175521136166</v>
       </c>
       <c r="F15">
-        <v>2.675259491182487</v>
+        <v>1.832833328159808</v>
       </c>
       <c r="G15">
-        <v>0.0007215529995366898</v>
+        <v>0.00241821748908606</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01238405369475437</v>
+        <v>0.1025034098757249</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.125929345489965</v>
+        <v>1.940960510433939</v>
       </c>
       <c r="N15">
-        <v>5.760561356084963</v>
+        <v>2.3755951647193</v>
       </c>
       <c r="O15">
-        <v>8.95903806151864</v>
+        <v>5.205401055879406</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2367549240389764</v>
+        <v>0.07086019448175307</v>
       </c>
       <c r="D16">
-        <v>0.04881456931318695</v>
+        <v>0.1246126494989639</v>
       </c>
       <c r="E16">
-        <v>0.02265780196128286</v>
+        <v>0.09892897550383051</v>
       </c>
       <c r="F16">
-        <v>2.498923671437865</v>
+        <v>1.803897081847452</v>
       </c>
       <c r="G16">
-        <v>0.0007270308245108941</v>
+        <v>0.002421373052424875</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01405550755766605</v>
+        <v>0.1039051189366322</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.80040313384707</v>
+        <v>1.843832026891022</v>
       </c>
       <c r="N16">
-        <v>5.435217696620157</v>
+        <v>2.270261138298622</v>
       </c>
       <c r="O16">
-        <v>8.351792735548372</v>
+        <v>5.095344471309886</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2258770492874191</v>
+        <v>0.06818006193844894</v>
       </c>
       <c r="D17">
-        <v>0.04873376449019062</v>
+        <v>0.124728714566956</v>
       </c>
       <c r="E17">
-        <v>0.02339091572339669</v>
+        <v>0.09944883969995377</v>
       </c>
       <c r="F17">
-        <v>2.393103195643221</v>
+        <v>1.786492316169699</v>
       </c>
       <c r="G17">
-        <v>0.0007304094198039177</v>
+        <v>0.002423351699304724</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01513941729350599</v>
+        <v>0.1047862811262554</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.601381027325203</v>
+        <v>1.784214287648325</v>
       </c>
       <c r="N17">
-        <v>5.236177709919389</v>
+        <v>2.205680035018815</v>
       </c>
       <c r="O17">
-        <v>7.986773957385367</v>
+        <v>5.028800010096859</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2196702416302116</v>
+        <v>0.06664084145775462</v>
       </c>
       <c r="D18">
-        <v>0.04869020719850781</v>
+        <v>0.1247972645576922</v>
       </c>
       <c r="E18">
-        <v>0.02382019086514209</v>
+        <v>0.09975240598112478</v>
       </c>
       <c r="F18">
-        <v>2.333041930499206</v>
+        <v>1.776608372821485</v>
       </c>
       <c r="G18">
-        <v>0.000732360178527405</v>
+        <v>0.002424505540240981</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01578343660654635</v>
+        <v>0.1053008994612785</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.487130704627077</v>
+        <v>1.749912540938794</v>
       </c>
       <c r="N18">
-        <v>5.121882007772115</v>
+        <v>2.168549860450128</v>
       </c>
       <c r="O18">
-        <v>7.779380384887872</v>
+        <v>4.990880604807955</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2175768855327647</v>
+        <v>0.06612008261664926</v>
       </c>
       <c r="D19">
-        <v>0.04867594926845342</v>
+        <v>0.1248207827417893</v>
       </c>
       <c r="E19">
-        <v>0.02396682740746048</v>
+        <v>0.09985597052216555</v>
       </c>
       <c r="F19">
-        <v>2.312838680337023</v>
+        <v>1.773283564942318</v>
       </c>
       <c r="G19">
-        <v>0.0007330220307919162</v>
+        <v>0.002424898924448697</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01600494112833761</v>
+        <v>0.1054764780897166</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.448483186516327</v>
+        <v>1.738296708259369</v>
       </c>
       <c r="N19">
-        <v>5.083214216100203</v>
+        <v>2.155980944334431</v>
       </c>
       <c r="O19">
-        <v>7.709581030769471</v>
+        <v>4.978102575252478</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.22702976105424</v>
+        <v>0.06846512550636419</v>
       </c>
       <c r="D20">
-        <v>0.04874206132544856</v>
+        <v>0.1247161738465792</v>
       </c>
       <c r="E20">
-        <v>0.02331208351824543</v>
+        <v>0.09939302794060101</v>
       </c>
       <c r="F20">
-        <v>2.404283419845953</v>
+        <v>1.78833194484767</v>
       </c>
       <c r="G20">
-        <v>0.000730049006258142</v>
+        <v>0.002423139436979637</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01502188269008542</v>
+        <v>0.1046916725835398</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.62254371377125</v>
+        <v>1.790561874240353</v>
       </c>
       <c r="N20">
-        <v>5.257346202658312</v>
+        <v>2.212553261873268</v>
       </c>
       <c r="O20">
-        <v>8.025361915457381</v>
+        <v>5.035846976508083</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2594171147673165</v>
+        <v>0.07637216355831811</v>
       </c>
       <c r="D21">
-        <v>0.04900001505971474</v>
+        <v>0.1243860823426814</v>
       </c>
       <c r="E21">
-        <v>0.02120428806353747</v>
+        <v>0.09789201381539936</v>
       </c>
       <c r="F21">
-        <v>2.721567304242086</v>
+        <v>1.840411760676432</v>
       </c>
       <c r="G21">
-        <v>0.0007201436361003813</v>
+        <v>0.002417415985497313</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01197139708867656</v>
+        <v>0.1021481013010632</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.210206727651382</v>
+        <v>1.96602648757505</v>
       </c>
       <c r="N21">
-        <v>5.844740377473045</v>
+        <v>2.402801058347393</v>
       </c>
       <c r="O21">
-        <v>9.118311726450884</v>
+        <v>5.234117453455042</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2811265900799071</v>
+        <v>0.08156140485807839</v>
       </c>
       <c r="D22">
-        <v>0.04919766468069398</v>
+        <v>0.1241862020828179</v>
       </c>
       <c r="E22">
-        <v>0.01989805718692317</v>
+        <v>0.0969515609084084</v>
       </c>
       <c r="F22">
-        <v>2.9374665825666</v>
+        <v>1.875590766485004</v>
       </c>
       <c r="G22">
-        <v>0.000713718311031562</v>
+        <v>0.002413814956259795</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01018143434589192</v>
+        <v>0.1005554935542126</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.596862223231426</v>
+        <v>2.080586815258073</v>
       </c>
       <c r="N22">
-        <v>6.230620189984791</v>
+        <v>2.527247939251311</v>
       </c>
       <c r="O22">
-        <v>9.859896985878493</v>
+        <v>5.366901954302136</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2694850467491818</v>
+        <v>0.07878979641044737</v>
       </c>
       <c r="D23">
-        <v>0.04908934666481812</v>
+        <v>0.1242914365427197</v>
       </c>
       <c r="E23">
-        <v>0.02058850851655691</v>
+        <v>0.09744978864766285</v>
       </c>
       <c r="F23">
-        <v>2.821383942619377</v>
+        <v>1.856709979456014</v>
       </c>
       <c r="G23">
-        <v>0.0007171441502928921</v>
+        <v>0.00241572416557385</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01111707873485202</v>
+        <v>0.1013990988491464</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.390228377641733</v>
+        <v>2.019455199949903</v>
       </c>
       <c r="N23">
-        <v>6.024470820149304</v>
+        <v>2.46081958113939</v>
       </c>
       <c r="O23">
-        <v>9.46136601304238</v>
+        <v>5.295737306574949</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2265084746255894</v>
+        <v>0.06833624322059961</v>
       </c>
       <c r="D24">
-        <v>0.0487383013290561</v>
+        <v>0.1247218378281261</v>
       </c>
       <c r="E24">
-        <v>0.02334769930712532</v>
+        <v>0.09941824583028502</v>
       </c>
       <c r="F24">
-        <v>2.399226436939642</v>
+        <v>1.787499867959923</v>
       </c>
       <c r="G24">
-        <v>0.0007302119230145113</v>
+        <v>0.002423235350120354</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01507495531205461</v>
+        <v>0.1047344201089651</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.612975539667602</v>
+        <v>1.787692213369894</v>
       </c>
       <c r="N24">
-        <v>5.247775509889664</v>
+        <v>2.209445880822386</v>
       </c>
       <c r="O24">
-        <v>8.007908683238213</v>
+        <v>5.032659990979027</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1820146504943381</v>
+        <v>0.05714857791345196</v>
       </c>
       <c r="D25">
-        <v>0.04847026526104159</v>
+        <v>0.1252546883386039</v>
       </c>
       <c r="E25">
-        <v>0.02661298821530433</v>
+        <v>0.1017156698588266</v>
       </c>
       <c r="F25">
-        <v>1.973997824715326</v>
+        <v>1.717686432853256</v>
       </c>
       <c r="G25">
-        <v>0.0007446015699593431</v>
+        <v>0.002431941066315912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02012170562689963</v>
+        <v>0.1086300210937576</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.78281519394838</v>
+        <v>1.537279076853039</v>
       </c>
       <c r="N25">
-        <v>4.416979332139562</v>
+        <v>1.93889360065225</v>
       </c>
       <c r="O25">
-        <v>6.535872058258633</v>
+        <v>4.762444337666977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_65/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04898030544646303</v>
+        <v>0.1504075084145597</v>
       </c>
       <c r="D2">
-        <v>0.1257066524302282</v>
+        <v>0.04835609144547703</v>
       </c>
       <c r="E2">
-        <v>0.1035573562867231</v>
+        <v>0.02924876566392332</v>
       </c>
       <c r="F2">
-        <v>1.67036430150111</v>
+        <v>1.680579327258457</v>
       </c>
       <c r="G2">
-        <v>0.002438876330124255</v>
+        <v>0.0007555333600693464</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1117533108220439</v>
+        <v>0.02441235650959772</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.352584820595027</v>
+        <v>3.17586520783918</v>
       </c>
       <c r="N2">
-        <v>1.740294397118504</v>
+        <v>3.809672473222065</v>
       </c>
       <c r="O2">
-        <v>4.574873944090655</v>
+        <v>5.513906784600806</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04348451995367952</v>
+        <v>0.1295159408715136</v>
       </c>
       <c r="D3">
-        <v>0.1260504724942564</v>
+        <v>0.04832625448076477</v>
       </c>
       <c r="E3">
-        <v>0.104899287764062</v>
+        <v>0.03117167707605972</v>
       </c>
       <c r="F3">
-        <v>1.640799753086426</v>
+        <v>1.491352312952344</v>
       </c>
       <c r="G3">
-        <v>0.002443907155615908</v>
+        <v>0.0007631878518337072</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1140284108014908</v>
+        <v>0.02763748459001469</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.22724505357219</v>
+        <v>2.766062525768504</v>
       </c>
       <c r="N3">
-        <v>1.606134505008129</v>
+        <v>3.400154251652424</v>
       </c>
       <c r="O3">
-        <v>4.454729144343901</v>
+        <v>4.85125728033421</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04012880259830354</v>
+        <v>0.1168941109578583</v>
       </c>
       <c r="D4">
-        <v>0.126280195050569</v>
+        <v>0.04833028449494314</v>
       </c>
       <c r="E4">
-        <v>0.1057695588103202</v>
+        <v>0.03241731003521053</v>
       </c>
       <c r="F4">
-        <v>1.623870794883487</v>
+        <v>1.379146761447245</v>
       </c>
       <c r="G4">
-        <v>0.002447160242067154</v>
+        <v>0.0007680194812157396</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1155032503235205</v>
+        <v>0.02976192635864017</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.150212736367109</v>
+        <v>2.514879689652602</v>
       </c>
       <c r="N4">
-        <v>1.523993944342948</v>
+        <v>3.149530066817562</v>
       </c>
       <c r="O4">
-        <v>4.384359006458055</v>
+        <v>4.456654508581323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03876591023536946</v>
+        <v>0.1117949014307271</v>
       </c>
       <c r="D5">
-        <v>0.1263785061739817</v>
+        <v>0.04833741226786081</v>
       </c>
       <c r="E5">
-        <v>0.1061358538425878</v>
+        <v>0.03294089950651058</v>
       </c>
       <c r="F5">
-        <v>1.617278255967562</v>
+        <v>1.334319403530088</v>
       </c>
       <c r="G5">
-        <v>0.002448527316004397</v>
+        <v>0.000770022946321447</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1161238154003144</v>
+        <v>0.03066219656935854</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.118805339419026</v>
+        <v>2.412590200032213</v>
       </c>
       <c r="N5">
-        <v>1.490583749881239</v>
+        <v>3.047581186118578</v>
       </c>
       <c r="O5">
-        <v>4.356532256021751</v>
+        <v>4.298597502679684</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03853987680648174</v>
+        <v>0.1109506503817386</v>
       </c>
       <c r="D6">
-        <v>0.1263951148443585</v>
+        <v>0.04833892361648395</v>
       </c>
       <c r="E6">
-        <v>0.1061973807860754</v>
+        <v>0.03302879657215874</v>
       </c>
       <c r="F6">
-        <v>1.616202014522116</v>
+        <v>1.326927175457087</v>
       </c>
       <c r="G6">
-        <v>0.002448756823119679</v>
+        <v>0.000770357745286831</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1162280398046356</v>
+        <v>0.03081372389715753</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.113589260736376</v>
+        <v>2.395608205920809</v>
       </c>
       <c r="N6">
-        <v>1.48503991737897</v>
+        <v>3.030663018854199</v>
       </c>
       <c r="O6">
-        <v>4.3519628135071</v>
+        <v>4.272508796429065</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04011040372456876</v>
+        <v>0.1168251713059618</v>
       </c>
       <c r="D7">
-        <v>0.1262815018678385</v>
+        <v>0.04833035857377865</v>
       </c>
       <c r="E7">
-        <v>0.1057744516065631</v>
+        <v>0.0324243070790744</v>
       </c>
       <c r="F7">
-        <v>1.623780648117688</v>
+        <v>1.378538701844633</v>
       </c>
       <c r="G7">
-        <v>0.002447178511114185</v>
+        <v>0.0007680463590480851</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1155115403504565</v>
+        <v>0.02977393004454942</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.149789227363186</v>
+        <v>2.513499946651962</v>
       </c>
       <c r="N7">
-        <v>1.523543103533257</v>
+        <v>3.148154439624591</v>
       </c>
       <c r="O7">
-        <v>4.383980291753971</v>
+        <v>4.454512201432237</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04708140169394426</v>
+        <v>0.1431567404494416</v>
       </c>
       <c r="D8">
-        <v>0.1258213476704988</v>
+        <v>0.04834107653064201</v>
       </c>
       <c r="E8">
-        <v>0.1040104437695435</v>
+        <v>0.02989808845607023</v>
       </c>
       <c r="F8">
-        <v>1.659915475881149</v>
+        <v>1.614442607286236</v>
       </c>
       <c r="G8">
-        <v>0.002440576976344893</v>
+        <v>0.0007581461694554052</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1125215709533585</v>
+        <v>0.02549338435469206</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.309384196411017</v>
+        <v>3.034448542424229</v>
       </c>
       <c r="N8">
-        <v>1.693989729170397</v>
+        <v>3.66828463624222</v>
       </c>
       <c r="O8">
-        <v>4.532739360128971</v>
+        <v>5.282667097471403</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06090598405492642</v>
+        <v>0.1967956690369164</v>
       </c>
       <c r="D9">
-        <v>0.1250659768105287</v>
+        <v>0.04854695167368206</v>
       </c>
       <c r="E9">
-        <v>0.1009184843684068</v>
+        <v>0.02547600876372069</v>
       </c>
       <c r="F9">
-        <v>1.740563859347333</v>
+        <v>2.113796582456985</v>
       </c>
       <c r="G9">
-        <v>0.002428927339792227</v>
+        <v>0.0007397072577617347</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1072780889896539</v>
+        <v>0.01832654083368013</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.621683565452898</v>
+        <v>4.061620411508898</v>
       </c>
       <c r="N9">
-        <v>2.029942079240129</v>
+        <v>4.696050528332137</v>
       </c>
       <c r="O9">
-        <v>4.851680228292707</v>
+        <v>7.020859647953841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07116633368296732</v>
+        <v>0.2380032352894546</v>
       </c>
       <c r="D10">
-        <v>0.1245996481797214</v>
+        <v>0.04882419458532183</v>
       </c>
       <c r="E10">
-        <v>0.09887027245566848</v>
+        <v>0.02257519122532958</v>
       </c>
       <c r="F10">
-        <v>1.805900313395142</v>
+        <v>2.511111843136689</v>
       </c>
       <c r="G10">
-        <v>0.002421149409398863</v>
+        <v>0.0007266462587255587</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1038056298581171</v>
+        <v>0.01393468090897532</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.850633252564307</v>
+        <v>4.823144931546608</v>
       </c>
       <c r="N10">
-        <v>2.277632257103733</v>
+        <v>5.457955891538063</v>
       </c>
       <c r="O10">
-        <v>5.102985925478947</v>
+        <v>8.393804612136307</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07585855701360344</v>
+        <v>0.2572884824505621</v>
       </c>
       <c r="D11">
-        <v>0.1244065461052912</v>
+        <v>0.04898165955244238</v>
       </c>
       <c r="E11">
-        <v>0.09798691408584226</v>
+        <v>0.02133677070652418</v>
       </c>
       <c r="F11">
-        <v>1.8369707072344</v>
+        <v>2.700533193199192</v>
       </c>
       <c r="G11">
-        <v>0.002417778707945402</v>
+        <v>0.00072078236592864</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1023088602583719</v>
+        <v>0.01215752769654799</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.954663130647134</v>
+        <v>5.171986598153694</v>
       </c>
       <c r="N11">
-        <v>2.390466510659451</v>
+        <v>5.806567710722334</v>
       </c>
       <c r="O11">
-        <v>5.221083733741636</v>
+        <v>9.04597554961822</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07763908447286383</v>
+        <v>0.264683095019052</v>
       </c>
       <c r="D12">
-        <v>0.1243361436883177</v>
+        <v>0.04904622667334735</v>
       </c>
       <c r="E12">
-        <v>0.09765936181021395</v>
+        <v>0.02088000017405278</v>
       </c>
       <c r="F12">
-        <v>1.848932139035384</v>
+        <v>2.773708363214581</v>
       </c>
       <c r="G12">
-        <v>0.002416526253252583</v>
+        <v>0.0007185703926382162</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.101754030951863</v>
+        <v>0.01151923304297142</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.994037282722928</v>
+        <v>5.304520070975258</v>
       </c>
       <c r="N12">
-        <v>2.433213383629663</v>
+        <v>5.93891547831447</v>
       </c>
       <c r="O12">
-        <v>5.266353898608315</v>
+        <v>9.297556061208525</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07725545013198598</v>
+        <v>0.2630862099365885</v>
       </c>
       <c r="D13">
-        <v>0.1243511853361596</v>
+        <v>0.04903209340897874</v>
       </c>
       <c r="E13">
-        <v>0.09772959668354275</v>
+        <v>0.02097782295003547</v>
       </c>
       <c r="F13">
-        <v>1.846347295302508</v>
+        <v>2.757881078722704</v>
       </c>
       <c r="G13">
-        <v>0.002416794928200891</v>
+        <v>0.0007190464452795129</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1018729904543338</v>
+        <v>0.0116551089689434</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.985558268557952</v>
+        <v>5.275955763509955</v>
       </c>
       <c r="N13">
-        <v>2.424006295602794</v>
+        <v>5.910396286819491</v>
       </c>
       <c r="O13">
-        <v>5.256579643447708</v>
+        <v>9.24315710464009</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07600496750835362</v>
+        <v>0.2578949164233393</v>
       </c>
       <c r="D14">
-        <v>0.1244006996107743</v>
+        <v>0.04898686972899213</v>
       </c>
       <c r="E14">
-        <v>0.09795982675307879</v>
+        <v>0.02129894445773761</v>
       </c>
       <c r="F14">
-        <v>1.837950847767758</v>
+        <v>2.706523168899849</v>
       </c>
       <c r="G14">
-        <v>0.002417675188362432</v>
+        <v>0.0007206002301766443</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1022629740450931</v>
+        <v>0.01210430195740919</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.957902874285395</v>
+        <v>5.182880952094251</v>
       </c>
       <c r="N14">
-        <v>2.393982962815755</v>
+        <v>5.817449025153053</v>
       </c>
       <c r="O14">
-        <v>5.22479709900341</v>
+        <v>9.066576675550039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07523949438964905</v>
+        <v>0.254727491863008</v>
       </c>
       <c r="D15">
-        <v>0.1244313824400436</v>
+        <v>0.04895982653940933</v>
       </c>
       <c r="E15">
-        <v>0.09810175521136166</v>
+        <v>0.0214972445161159</v>
       </c>
       <c r="F15">
-        <v>1.832833328159808</v>
+        <v>2.675259491182516</v>
       </c>
       <c r="G15">
-        <v>0.00241821748908606</v>
+        <v>0.0007215529995379734</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1025034098757249</v>
+        <v>0.01238405369463091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.940960510433939</v>
+        <v>5.125929345489993</v>
       </c>
       <c r="N15">
-        <v>2.3755951647193</v>
+        <v>5.760561356084963</v>
       </c>
       <c r="O15">
-        <v>5.205401055879406</v>
+        <v>8.95903806151864</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07086019448175307</v>
+        <v>0.2367549240389764</v>
       </c>
       <c r="D16">
-        <v>0.1246126494989639</v>
+        <v>0.04881456931307326</v>
       </c>
       <c r="E16">
-        <v>0.09892897550383051</v>
+        <v>0.02265780196128286</v>
       </c>
       <c r="F16">
-        <v>1.803897081847452</v>
+        <v>2.498923671437865</v>
       </c>
       <c r="G16">
-        <v>0.002421373052424875</v>
+        <v>0.0007270308245104782</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1039051189366322</v>
+        <v>0.01405550755771312</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.843832026891022</v>
+        <v>4.800403133847027</v>
       </c>
       <c r="N16">
-        <v>2.270261138298622</v>
+        <v>5.435217696620271</v>
       </c>
       <c r="O16">
-        <v>5.095344471309886</v>
+        <v>8.351792735548429</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06818006193844894</v>
+        <v>0.2258770492874334</v>
       </c>
       <c r="D17">
-        <v>0.124728714566956</v>
+        <v>0.04873376449019418</v>
       </c>
       <c r="E17">
-        <v>0.09944883969995377</v>
+        <v>0.02339091572337004</v>
       </c>
       <c r="F17">
-        <v>1.786492316169699</v>
+        <v>2.393103195643164</v>
       </c>
       <c r="G17">
-        <v>0.002423351699304724</v>
+        <v>0.0007304094198048334</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1047862811262554</v>
+        <v>0.01513941729356283</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.784214287648325</v>
+        <v>4.601381027325189</v>
       </c>
       <c r="N17">
-        <v>2.205680035018815</v>
+        <v>5.236177709919389</v>
       </c>
       <c r="O17">
-        <v>5.028800010096859</v>
+        <v>7.98677395738531</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06664084145775462</v>
+        <v>0.2196702416302401</v>
       </c>
       <c r="D18">
-        <v>0.1247972645576922</v>
+        <v>0.04869020719861439</v>
       </c>
       <c r="E18">
-        <v>0.09975240598112478</v>
+        <v>0.02382019086511367</v>
       </c>
       <c r="F18">
-        <v>1.776608372821485</v>
+        <v>2.33304193049922</v>
       </c>
       <c r="G18">
-        <v>0.002424505540240981</v>
+        <v>0.0007323601785795195</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1053008994612785</v>
+        <v>0.01578343660653125</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.749912540938794</v>
+        <v>4.487130704627091</v>
       </c>
       <c r="N18">
-        <v>2.168549860450128</v>
+        <v>5.121882007772115</v>
       </c>
       <c r="O18">
-        <v>4.990880604807955</v>
+        <v>7.779380384887986</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06612008261664926</v>
+        <v>0.2175768855325657</v>
       </c>
       <c r="D19">
-        <v>0.1248207827417893</v>
+        <v>0.04867594926846053</v>
       </c>
       <c r="E19">
-        <v>0.09985597052216555</v>
+        <v>0.02396682740746403</v>
       </c>
       <c r="F19">
-        <v>1.773283564942318</v>
+        <v>2.312838680337023</v>
       </c>
       <c r="G19">
-        <v>0.002424898924448697</v>
+        <v>0.0007330220308489674</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1054764780897166</v>
+        <v>0.01600494112830297</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.738296708259369</v>
+        <v>4.44848318651627</v>
       </c>
       <c r="N19">
-        <v>2.155980944334431</v>
+        <v>5.083214216100089</v>
       </c>
       <c r="O19">
-        <v>4.978102575252478</v>
+        <v>7.709581030769414</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06846512550636419</v>
+        <v>0.22702976105424</v>
       </c>
       <c r="D20">
-        <v>0.1247161738465792</v>
+        <v>0.04874206132555514</v>
       </c>
       <c r="E20">
-        <v>0.09939302794060101</v>
+        <v>0.02331208351823388</v>
       </c>
       <c r="F20">
-        <v>1.78833194484767</v>
+        <v>2.404283419845967</v>
       </c>
       <c r="G20">
-        <v>0.002423139436979637</v>
+        <v>0.0007300490063123755</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1046916725835398</v>
+        <v>0.01502188269008808</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.790561874240353</v>
+        <v>4.622543713771236</v>
       </c>
       <c r="N20">
-        <v>2.212553261873268</v>
+        <v>5.257346202658312</v>
       </c>
       <c r="O20">
-        <v>5.035846976508083</v>
+        <v>8.025361915457381</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07637216355831811</v>
+        <v>0.2594171147671034</v>
       </c>
       <c r="D21">
-        <v>0.1243860823426814</v>
+        <v>0.04900001505971474</v>
       </c>
       <c r="E21">
-        <v>0.09789201381539936</v>
+        <v>0.02120428806350905</v>
       </c>
       <c r="F21">
-        <v>1.840411760676432</v>
+        <v>2.721567304242114</v>
       </c>
       <c r="G21">
-        <v>0.002417415985497313</v>
+        <v>0.0007201436360457501</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1021481013010632</v>
+        <v>0.01197139708867478</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.96602648757505</v>
+        <v>5.210206727651382</v>
       </c>
       <c r="N21">
-        <v>2.402801058347393</v>
+        <v>5.844740377473158</v>
       </c>
       <c r="O21">
-        <v>5.234117453455042</v>
+        <v>9.118311726450884</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08156140485807839</v>
+        <v>0.2811265900801203</v>
       </c>
       <c r="D22">
-        <v>0.1241862020828179</v>
+        <v>0.04919766468080411</v>
       </c>
       <c r="E22">
-        <v>0.0969515609084084</v>
+        <v>0.01989805718692139</v>
       </c>
       <c r="F22">
-        <v>1.875590766485004</v>
+        <v>2.937466582566628</v>
       </c>
       <c r="G22">
-        <v>0.002413814956259795</v>
+        <v>0.0007137183109759433</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1005554935542126</v>
+        <v>0.01018143434593721</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.080586815258073</v>
+        <v>5.596862223231454</v>
       </c>
       <c r="N22">
-        <v>2.527247939251311</v>
+        <v>6.230620189984791</v>
       </c>
       <c r="O22">
-        <v>5.366901954302136</v>
+        <v>9.859896985878493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07878979641044737</v>
+        <v>0.2694850467493808</v>
       </c>
       <c r="D23">
-        <v>0.1242914365427197</v>
+        <v>0.0490893466649247</v>
       </c>
       <c r="E23">
-        <v>0.09744978864766285</v>
+        <v>0.02058850851655425</v>
       </c>
       <c r="F23">
-        <v>1.856709979456014</v>
+        <v>2.821383942619349</v>
       </c>
       <c r="G23">
-        <v>0.00241572416557385</v>
+        <v>0.000717144150234102</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1013990988491464</v>
+        <v>0.0111170787348982</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.019455199949903</v>
+        <v>5.390228377641762</v>
       </c>
       <c r="N23">
-        <v>2.46081958113939</v>
+        <v>6.024470820149304</v>
       </c>
       <c r="O23">
-        <v>5.295737306574949</v>
+        <v>9.46136601304238</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06833624322059961</v>
+        <v>0.2265084746258026</v>
       </c>
       <c r="D24">
-        <v>0.1247218378281261</v>
+        <v>0.04873830132905965</v>
       </c>
       <c r="E24">
-        <v>0.09941824583028502</v>
+        <v>0.02334769930715197</v>
       </c>
       <c r="F24">
-        <v>1.787499867959923</v>
+        <v>2.399226436939657</v>
       </c>
       <c r="G24">
-        <v>0.002423235350120354</v>
+        <v>0.0007302119230701335</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1047344201089651</v>
+        <v>0.01507495531200398</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.787692213369894</v>
+        <v>4.61297553966763</v>
       </c>
       <c r="N24">
-        <v>2.209445880822386</v>
+        <v>5.247775509889664</v>
       </c>
       <c r="O24">
-        <v>5.032659990979027</v>
+        <v>8.007908683238156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05714857791345196</v>
+        <v>0.1820146504945512</v>
       </c>
       <c r="D25">
-        <v>0.1252546883386039</v>
+        <v>0.04847026526105225</v>
       </c>
       <c r="E25">
-        <v>0.1017156698588266</v>
+        <v>0.02661298821531943</v>
       </c>
       <c r="F25">
-        <v>1.717686432853256</v>
+        <v>1.97399782471534</v>
       </c>
       <c r="G25">
-        <v>0.002431941066315912</v>
+        <v>0.000744601569965031</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1086300210937576</v>
+        <v>0.02012170562678683</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.537279076853039</v>
+        <v>3.78281519394838</v>
       </c>
       <c r="N25">
-        <v>1.93889360065225</v>
+        <v>4.416979332139675</v>
       </c>
       <c r="O25">
-        <v>4.762444337666977</v>
+        <v>6.535872058258633</v>
       </c>
     </row>
   </sheetData>
